--- a/src/Tests/Templates/CompanyDirectives.xlsx
+++ b/src/Tests/Templates/CompanyDirectives.xlsx
@@ -306,6 +306,19 @@
   </x:si>
   <x:si>
     <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Загружен частично</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.03.2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Сотрудник" с именем "Иванов Иван Иванович". Проверьте, что выбрана верная запись.
+Найдено несколько записей типа сущности "Сотрудник" с именем "Добрынин Никита". Проверьте, что выбрана верная запись.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -953,7 +966,7 @@
     </x:row>
     <x:row r="2" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <x:c r="A2" s="19" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="20">
         <x:v>44239</x:v>
@@ -995,13 +1008,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="O2" t="s">
-        <x:v>29</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P2" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q2" t="s">
-        <x:v>30</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="R2"/>
       <x:c r="S2"/>
